--- a/donationApp/BloodDonation.xlsx
+++ b/donationApp/BloodDonation.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,11 +428,6 @@
         <v>18</v>
       </c>
       <c r="D1" t="inlineStr"/>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>7/23/21</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/donationApp/BloodDonation.xlsx
+++ b/donationApp/BloodDonation.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A2:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,13 +424,28 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr"/>
-      <c r="B1" t="inlineStr"/>
-      <c r="C1" t="n">
-        <v>18</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Meenu</t>
+        </is>
       </c>
-      <c r="D1" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>a+</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>44399</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
